--- a/Analyzed/raw/data_2018.xlsx
+++ b/Analyzed/raw/data_2018.xlsx
@@ -537,16 +537,16 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W2">
         <v>2</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="V3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>3</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V4">
         <v>2</v>
@@ -710,7 +710,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>넥센 히어로즈</t>
+          <t>키움 히어로즈</t>
         </is>
       </c>
       <c r="B5">
@@ -734,29 +734,53 @@
       <c r="H5">
         <v>0.521</v>
       </c>
+      <c r="I5">
+        <v>48.26</v>
+      </c>
+      <c r="J5">
+        <v>2859</v>
+      </c>
+      <c r="K5">
+        <v>1730.833</v>
+      </c>
+      <c r="L5">
+        <v>837</v>
+      </c>
+      <c r="M5">
+        <v>66.87736066504979</v>
+      </c>
+      <c r="N5">
+        <v>82.30000000000004</v>
+      </c>
+      <c r="O5">
+        <v>1114.62</v>
+      </c>
+      <c r="P5">
+        <v>3143.8</v>
+      </c>
       <c r="Q5">
         <v>4</v>
       </c>
       <c r="R5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -814,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>3</v>
       </c>
       <c r="W6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -890,13 +914,13 @@
         <v>5</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7">
         <v>3</v>
@@ -969,19 +993,19 @@
         <v>4</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8">
         <v>1</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X8">
         <v>6</v>
@@ -1042,25 +1066,25 @@
         <v>8</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>5</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1118,22 +1142,22 @@
         <v>9</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <v>6</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>3</v>
@@ -1194,13 +1218,13 @@
         <v>10</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>9</v>
@@ -1209,10 +1233,10 @@
         <v>6</v>
       </c>
       <c r="W11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
